--- a/Jogos_do_Dia/2023-08-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -157,15 +157,15 @@
     <t>Switzerland Super League</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Norway First Division</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Czech Republic First League</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Serbia SuperLiga</t>
   </si>
   <si>
+    <t>Austria Bundesliga</t>
+  </si>
+  <si>
     <t>Norway Eliteserien</t>
   </si>
   <si>
-    <t>Austria Bundesliga</t>
-  </si>
-  <si>
     <t>Romania Liga I</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>Bulgaria First League</t>
   </si>
   <si>
+    <t>Slovakia Super Liga</t>
+  </si>
+  <si>
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>Slovakia Super Liga</t>
-  </si>
-  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
@@ -424,21 +424,21 @@
     <t>Lausanne Sport</t>
   </si>
   <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Skövde AIK</t>
+  </si>
+  <si>
     <t>Kongsvinger</t>
   </si>
   <si>
-    <t>Elfsborg</t>
-  </si>
-  <si>
-    <t>Skövde AIK</t>
-  </si>
-  <si>
     <t>Bryne</t>
   </si>
   <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
     <t>KFUM</t>
   </si>
   <si>
@@ -478,84 +478,84 @@
     <t>KV Mechelen</t>
   </si>
   <si>
+    <t>Baltika</t>
+  </si>
+  <si>
+    <t>Freiburg II</t>
+  </si>
+  <si>
     <t>Grasshopper</t>
   </si>
   <si>
     <t>St. Gallen</t>
   </si>
   <si>
-    <t>Freiburg II</t>
-  </si>
-  <si>
-    <t>Baltika</t>
-  </si>
-  <si>
     <t>Red Star Belgrade</t>
   </si>
   <si>
     <t>GAIS</t>
   </si>
   <si>
+    <t>Radnički Kragujevac</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
+    <t>Blau-Weiß Linz</t>
+  </si>
+  <si>
+    <t>Odd</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
     <t>HamKam</t>
   </si>
   <si>
-    <t>Haugesund</t>
-  </si>
-  <si>
-    <t>Odd</t>
-  </si>
-  <si>
     <t>Sandefjord</t>
   </si>
   <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>Austria Lustenau</t>
-  </si>
-  <si>
-    <t>Salzburg</t>
-  </si>
-  <si>
-    <t>Blau-Weiß Linz</t>
-  </si>
-  <si>
-    <t>Radnički Kragujevac</t>
-  </si>
-  <si>
     <t>Petrolul 52</t>
   </si>
   <si>
+    <t>Mura</t>
+  </si>
+  <si>
     <t>Zagłębie Lubin</t>
   </si>
   <si>
-    <t>Mura</t>
-  </si>
-  <si>
     <t>CSKA Sofia</t>
   </si>
   <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Zenit</t>
+  </si>
+  <si>
+    <t>Slavia Praha</t>
+  </si>
+  <si>
+    <t>Zlaté Moravce</t>
+  </si>
+  <si>
+    <t>Vaprus</t>
+  </si>
+  <si>
+    <t>Nordsjælland</t>
+  </si>
+  <si>
     <t>Dundalk</t>
   </si>
   <si>
-    <t>Vaprus</t>
-  </si>
-  <si>
-    <t>Nordsjælland</t>
-  </si>
-  <si>
-    <t>Slavia Praha</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Zenit</t>
-  </si>
-  <si>
-    <t>Zlaté Moravce</t>
-  </si>
-  <si>
     <t>Ñublense</t>
   </si>
   <si>
@@ -628,12 +628,12 @@
     <t>Ceará</t>
   </si>
   <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
     <t>Bahia</t>
   </si>
   <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
     <t>Copiapó</t>
   </si>
   <si>
@@ -742,21 +742,21 @@
     <t>Yverdon Sport</t>
   </si>
   <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
+    <t>Västerås SK</t>
+  </si>
+  <si>
     <t>Raufoss</t>
   </si>
   <si>
-    <t>Sirius</t>
-  </si>
-  <si>
-    <t>Västerås SK</t>
-  </si>
-  <si>
     <t>Ranheim</t>
   </si>
   <si>
-    <t>AIK</t>
-  </si>
-  <si>
     <t>Åsane</t>
   </si>
   <si>
@@ -796,84 +796,84 @@
     <t>KAA Gent</t>
   </si>
   <si>
+    <t>Fakel</t>
+  </si>
+  <si>
+    <t>MSV Duisburg</t>
+  </si>
+  <si>
     <t>Basel</t>
   </si>
   <si>
     <t>Luzern</t>
   </si>
   <si>
-    <t>MSV Duisburg</t>
-  </si>
-  <si>
-    <t>Fakel</t>
-  </si>
-  <si>
     <t>Napredak</t>
   </si>
   <si>
     <t>GIF Sundsvall</t>
   </si>
   <si>
+    <t>Čukarički</t>
+  </si>
+  <si>
+    <t>Wattens</t>
+  </si>
+  <si>
+    <t>Austria Wien</t>
+  </si>
+  <si>
+    <t>Lillestrøm</t>
+  </si>
+  <si>
+    <t>Hartberg</t>
+  </si>
+  <si>
+    <t>Stabæk</t>
+  </si>
+  <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
     <t>Brann</t>
   </si>
   <si>
-    <t>Rosenborg</t>
-  </si>
-  <si>
-    <t>Stabæk</t>
-  </si>
-  <si>
     <t>Sarpsborg 08</t>
   </si>
   <si>
-    <t>Lillestrøm</t>
-  </si>
-  <si>
-    <t>Austria Wien</t>
-  </si>
-  <si>
-    <t>Wattens</t>
-  </si>
-  <si>
-    <t>Hartberg</t>
-  </si>
-  <si>
-    <t>Čukarički</t>
-  </si>
-  <si>
     <t>SSC Farul</t>
   </si>
   <si>
+    <t>Maribor</t>
+  </si>
+  <si>
     <t>Lech Poznań</t>
   </si>
   <si>
-    <t>Maribor</t>
-  </si>
-  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
+    <t>Dinamo Moskva</t>
+  </si>
+  <si>
+    <t>Zlín</t>
+  </si>
+  <si>
+    <t>Spartak Trnava</t>
+  </si>
+  <si>
+    <t>Tallinna FC Levadia</t>
+  </si>
+  <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Tallinna FC Levadia</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
-    <t>Zlín</t>
-  </si>
-  <si>
-    <t>Ipswich Town</t>
-  </si>
-  <si>
-    <t>Dinamo Moskva</t>
-  </si>
-  <si>
-    <t>Spartak Trnava</t>
-  </si>
-  <si>
     <t>Cobresal</t>
   </si>
   <si>
@@ -946,10 +946,10 @@
     <t>ABC</t>
   </si>
   <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
     <t>América Mineiro</t>
-  </si>
-  <si>
-    <t>Bragantino</t>
   </si>
   <si>
     <t>Curicó Unido</t>
@@ -1459,13 +1459,13 @@
         <v>211</v>
       </c>
       <c r="G2">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H2">
-        <v>3.31</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>3.08</v>
+        <v>3.5</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -1480,10 +1480,10 @@
         <v>4.75</v>
       </c>
       <c r="N2">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="P2">
         <v>1.29</v>
@@ -1507,10 +1507,10 @@
         <v>1.68</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AC2">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="AD2">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>212</v>
       </c>
       <c r="G3">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H3">
         <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1587,10 +1587,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="O3">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1614,10 +1614,10 @@
         <v>1.33</v>
       </c>
       <c r="W3">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Y3">
         <v>1.35</v>
@@ -1673,13 +1673,13 @@
         <v>213</v>
       </c>
       <c r="G4">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -1694,10 +1694,10 @@
         <v>3.9</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O4">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>1.33</v>
@@ -1721,10 +1721,10 @@
         <v>1.66</v>
       </c>
       <c r="W4">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="X4">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y4">
         <v>1.38</v>
@@ -1780,13 +1780,13 @@
         <v>214</v>
       </c>
       <c r="G5">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1801,10 +1801,10 @@
         <v>3.4</v>
       </c>
       <c r="N5">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P5">
         <v>1.36</v>
@@ -1828,7 +1828,7 @@
         <v>1.6</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="X5">
         <v>1.07</v>
@@ -1887,13 +1887,13 @@
         <v>215</v>
       </c>
       <c r="G6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -1908,10 +1908,10 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="O6">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="P6">
         <v>1.33</v>
@@ -1935,10 +1935,10 @@
         <v>1.72</v>
       </c>
       <c r="W6">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X6">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="Y6">
         <v>1.21</v>
@@ -1994,13 +1994,13 @@
         <v>216</v>
       </c>
       <c r="G7">
-        <v>5.25</v>
+        <v>4.6</v>
       </c>
       <c r="H7">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J7">
         <v>1.04</v>
@@ -2015,10 +2015,10 @@
         <v>3.8</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O7">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="P7">
         <v>1.33</v>
@@ -2042,10 +2042,10 @@
         <v>1.11</v>
       </c>
       <c r="W7">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>1.11</v>
@@ -2101,10 +2101,10 @@
         <v>217</v>
       </c>
       <c r="G8">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8">
         <v>2.25</v>
@@ -2122,10 +2122,10 @@
         <v>2.8</v>
       </c>
       <c r="N8">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P8">
         <v>1.5</v>
@@ -2208,13 +2208,13 @@
         <v>218</v>
       </c>
       <c r="G9">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I9">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -2229,10 +2229,10 @@
         <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P9">
         <v>1.36</v>
@@ -2256,10 +2256,10 @@
         <v>1.76</v>
       </c>
       <c r="W9">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="X9">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="Y9">
         <v>1.48</v>
@@ -2315,13 +2315,13 @@
         <v>219</v>
       </c>
       <c r="G10">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H10">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J10">
         <v>1.12</v>
@@ -2330,16 +2330,16 @@
         <v>5.3</v>
       </c>
       <c r="L10">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M10">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P10">
         <v>1.57</v>
@@ -2363,10 +2363,10 @@
         <v>1.38</v>
       </c>
       <c r="W10">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="X10">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="Y10">
         <v>1.09</v>
@@ -2422,13 +2422,13 @@
         <v>220</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I11">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J11">
         <v>1.09</v>
@@ -2443,10 +2443,10 @@
         <v>2.7</v>
       </c>
       <c r="N11">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="O11">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11">
         <v>1.53</v>
@@ -2470,10 +2470,10 @@
         <v>1.36</v>
       </c>
       <c r="W11">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="X11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y11">
         <v>1.5</v>
@@ -2529,13 +2529,13 @@
         <v>221</v>
       </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H12">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I12">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -2550,10 +2550,10 @@
         <v>3.8</v>
       </c>
       <c r="N12">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="O12">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P12">
         <v>1.33</v>
@@ -2577,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="X12">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="Y12">
         <v>1.69</v>
@@ -2636,13 +2636,13 @@
         <v>222</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J13">
         <v>1.08</v>
@@ -2657,10 +2657,10 @@
         <v>2.8</v>
       </c>
       <c r="N13">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P13">
         <v>1.5</v>
@@ -2687,7 +2687,7 @@
         <v>1.07</v>
       </c>
       <c r="X13">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="Y13">
         <v>1.18</v>
@@ -2749,7 +2749,7 @@
         <v>3.5</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J14">
         <v>1.02</v>
@@ -2764,10 +2764,10 @@
         <v>3.7</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O14">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P14">
         <v>1.36</v>
@@ -2791,10 +2791,10 @@
         <v>1.66</v>
       </c>
       <c r="W14">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X14">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="Y14">
         <v>1.47</v>
@@ -2850,13 +2850,13 @@
         <v>224</v>
       </c>
       <c r="G15">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="H15">
         <v>3.7</v>
       </c>
       <c r="I15">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J15">
         <v>1.03</v>
@@ -2871,10 +2871,10 @@
         <v>4.5</v>
       </c>
       <c r="N15">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="O15">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="P15">
         <v>1.3</v>
@@ -2898,10 +2898,10 @@
         <v>1.57</v>
       </c>
       <c r="W15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="Y15">
         <v>1.61</v>
@@ -2957,13 +2957,13 @@
         <v>225</v>
       </c>
       <c r="G16">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="H16">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I16">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J16">
         <v>1.05</v>
@@ -2978,10 +2978,10 @@
         <v>3.5</v>
       </c>
       <c r="N16">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="P16">
         <v>1.36</v>
@@ -3005,10 +3005,10 @@
         <v>2.05</v>
       </c>
       <c r="W16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>1.55</v>
@@ -3064,13 +3064,13 @@
         <v>226</v>
       </c>
       <c r="G17">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="H17">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I17">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -3085,10 +3085,10 @@
         <v>3</v>
       </c>
       <c r="N17">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P17">
         <v>1.44</v>
@@ -3112,10 +3112,10 @@
         <v>1.57</v>
       </c>
       <c r="W17">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="Y17">
         <v>1.46</v>
@@ -3171,13 +3171,13 @@
         <v>227</v>
       </c>
       <c r="G18">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="H18">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I18">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J18">
         <v>1.06</v>
@@ -3192,10 +3192,10 @@
         <v>3.2</v>
       </c>
       <c r="N18">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O18">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="P18">
         <v>1.4</v>
@@ -3219,10 +3219,10 @@
         <v>1.7</v>
       </c>
       <c r="W18">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="X18">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="Y18">
         <v>1.23</v>
@@ -3278,13 +3278,13 @@
         <v>228</v>
       </c>
       <c r="G19">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="H19">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="I19">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J19">
         <v>1.05</v>
@@ -3299,10 +3299,10 @@
         <v>3.5</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="P19">
         <v>1.39</v>
@@ -3326,10 +3326,10 @@
         <v>1.42</v>
       </c>
       <c r="W19">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="Y19">
         <v>1.3</v>
@@ -3385,13 +3385,13 @@
         <v>229</v>
       </c>
       <c r="G20">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="H20">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="I20">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="J20">
         <v>1.08</v>
@@ -3406,10 +3406,10 @@
         <v>2.75</v>
       </c>
       <c r="N20">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P20">
         <v>1.5</v>
@@ -3433,10 +3433,10 @@
         <v>1.53</v>
       </c>
       <c r="W20">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X20">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="Y20">
         <v>1.22</v>
@@ -3492,13 +3492,13 @@
         <v>230</v>
       </c>
       <c r="G21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J21">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>3.1</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="P21">
         <v>1.44</v>
@@ -3540,10 +3540,10 @@
         <v>1.72</v>
       </c>
       <c r="W21">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X21">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="Y21">
         <v>1.62</v>
@@ -3599,13 +3599,13 @@
         <v>231</v>
       </c>
       <c r="G22">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H22">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="I22">
-        <v>4.69</v>
+        <v>4.75</v>
       </c>
       <c r="J22">
         <v>1.05</v>
@@ -3647,10 +3647,10 @@
         <v>2.17</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="X22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="Y22">
         <v>1.87</v>
@@ -3706,13 +3706,13 @@
         <v>232</v>
       </c>
       <c r="G23">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="H23">
-        <v>3.7</v>
+        <v>3.98</v>
       </c>
       <c r="I23">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="J23">
         <v>1.04</v>
@@ -3754,7 +3754,7 @@
         <v>2.5</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -3813,13 +3813,13 @@
         <v>233</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H24">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J24">
         <v>1.02</v>
@@ -3834,10 +3834,10 @@
         <v>5.6</v>
       </c>
       <c r="N24">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O24">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="P24">
         <v>1.23</v>
@@ -3861,10 +3861,10 @@
         <v>1.41</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3920,13 +3920,13 @@
         <v>234</v>
       </c>
       <c r="G25">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H25">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I25">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J25">
         <v>1.03</v>
@@ -3941,10 +3941,10 @@
         <v>3.75</v>
       </c>
       <c r="N25">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="O25">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="P25">
         <v>1.33</v>
@@ -3968,7 +3968,7 @@
         <v>1.55</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>235</v>
       </c>
       <c r="G26">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H26">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I26">
         <v>3.5</v>
@@ -4048,10 +4048,10 @@
         <v>4.33</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O26">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P26">
         <v>1.3</v>
@@ -4075,7 +4075,7 @@
         <v>1.98</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         <v>236</v>
       </c>
       <c r="G27">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H27">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I27">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J27">
         <v>1.04</v>
@@ -4155,10 +4155,10 @@
         <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O27">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="P27">
         <v>1.33</v>
@@ -4182,10 +4182,10 @@
         <v>1.63</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -4244,10 +4244,10 @@
         <v>3.45</v>
       </c>
       <c r="H28">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I28">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J28">
         <v>1.01</v>
@@ -4262,10 +4262,10 @@
         <v>3.75</v>
       </c>
       <c r="N28">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O28">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="P28">
         <v>1.35</v>
@@ -4289,10 +4289,10 @@
         <v>1.33</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -4348,13 +4348,13 @@
         <v>238</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H29">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I29">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="J29">
         <v>1.04</v>
@@ -4369,10 +4369,10 @@
         <v>3.35</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P29">
         <v>1.4</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -4455,13 +4455,13 @@
         <v>239</v>
       </c>
       <c r="G30">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="H30">
-        <v>3.48</v>
+        <v>3.75</v>
       </c>
       <c r="I30">
-        <v>3.99</v>
+        <v>3.3</v>
       </c>
       <c r="J30">
         <v>1.02</v>
@@ -4476,10 +4476,10 @@
         <v>4.75</v>
       </c>
       <c r="N30">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="O30">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="P30">
         <v>1.26</v>
@@ -4503,10 +4503,10 @@
         <v>1.87</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30">
         <v>1.59</v>
@@ -4518,28 +4518,28 @@
         <v>2.69</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4562,13 +4562,13 @@
         <v>240</v>
       </c>
       <c r="G31">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H31">
-        <v>3.32</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="J31">
         <v>1.03</v>
@@ -4583,10 +4583,10 @@
         <v>4.5</v>
       </c>
       <c r="N31">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="O31">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="P31">
         <v>1.3</v>
@@ -4595,10 +4595,10 @@
         <v>3.4</v>
       </c>
       <c r="R31">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S31">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T31">
         <v>1.22</v>
@@ -4610,10 +4610,10 @@
         <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
         <v>1.43</v>
@@ -4625,28 +4625,28 @@
         <v>2.46</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4669,13 +4669,13 @@
         <v>241</v>
       </c>
       <c r="G32">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H32">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I32">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="J32">
         <v>1.03</v>
@@ -4690,10 +4690,10 @@
         <v>4.92</v>
       </c>
       <c r="N32">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O32">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="P32">
         <v>1.29</v>
@@ -4717,10 +4717,10 @@
         <v>2</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y32">
         <v>1.98</v>
@@ -4767,7 +4767,7 @@
         <v>79</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>136</v>
@@ -4776,96 +4776,96 @@
         <v>242</v>
       </c>
       <c r="G33">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="I33">
-        <v>4.35</v>
+        <v>7</v>
       </c>
       <c r="J33">
+        <v>1.01</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>1.11</v>
+      </c>
+      <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.41</v>
+      </c>
+      <c r="O33">
+        <v>2.69</v>
+      </c>
+      <c r="P33">
+        <v>1.24</v>
+      </c>
+      <c r="Q33">
+        <v>4.2</v>
+      </c>
+      <c r="R33">
+        <v>1.7</v>
+      </c>
+      <c r="S33">
+        <v>2.05</v>
+      </c>
+      <c r="T33">
         <v>1.03</v>
       </c>
-      <c r="K33">
-        <v>17</v>
-      </c>
-      <c r="L33">
-        <v>1.22</v>
-      </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
-      <c r="N33">
-        <v>1.57</v>
-      </c>
-      <c r="O33">
-        <v>2.35</v>
-      </c>
-      <c r="P33">
-        <v>1.3</v>
-      </c>
-      <c r="Q33">
-        <v>3.4</v>
-      </c>
-      <c r="R33">
-        <v>1.8</v>
-      </c>
-      <c r="S33">
-        <v>1.91</v>
-      </c>
-      <c r="T33">
+      <c r="U33">
         <v>1.1</v>
       </c>
-      <c r="U33">
-        <v>1.18</v>
-      </c>
       <c r="V33">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="W33">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="X33">
-        <v>0.5</v>
+        <v>1.11</v>
       </c>
       <c r="Y33">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="Z33">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AA33">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="AB33">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AC33">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD33">
-        <v>3.05</v>
+        <v>7.5</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AG33">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AH33">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AI33">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>45144</v>
@@ -4883,96 +4883,96 @@
         <v>243</v>
       </c>
       <c r="G34">
-        <v>1.35</v>
+        <v>2.5</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="I34">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="J34">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="M34">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
+        <v>2.25</v>
+      </c>
+      <c r="O34">
+        <v>1.57</v>
+      </c>
+      <c r="P34">
+        <v>1.45</v>
+      </c>
+      <c r="Q34">
+        <v>2.75</v>
+      </c>
+      <c r="R34">
+        <v>1.85</v>
+      </c>
+      <c r="S34">
+        <v>1.92</v>
+      </c>
+      <c r="T34">
+        <v>1.6</v>
+      </c>
+      <c r="U34">
+        <v>1.28</v>
+      </c>
+      <c r="V34">
+        <v>1.4</v>
+      </c>
+      <c r="W34">
+        <v>1.89</v>
+      </c>
+      <c r="X34">
+        <v>1.1</v>
+      </c>
+      <c r="Y34">
+        <v>1.39</v>
+      </c>
+      <c r="Z34">
+        <v>1.27</v>
+      </c>
+      <c r="AA34">
+        <v>2.66</v>
+      </c>
+      <c r="AB34">
+        <v>2.3</v>
+      </c>
+      <c r="AC34">
+        <v>7.5</v>
+      </c>
+      <c r="AD34">
+        <v>1.88</v>
+      </c>
+      <c r="AE34">
+        <v>1.17</v>
+      </c>
+      <c r="AF34">
+        <v>1.26</v>
+      </c>
+      <c r="AG34">
         <v>1.49</v>
       </c>
-      <c r="O34">
-        <v>2.38</v>
-      </c>
-      <c r="P34">
-        <v>1.24</v>
-      </c>
-      <c r="Q34">
-        <v>4.2</v>
-      </c>
-      <c r="R34">
-        <v>1.7</v>
-      </c>
-      <c r="S34">
-        <v>2.05</v>
-      </c>
-      <c r="T34">
-        <v>1.03</v>
-      </c>
-      <c r="U34">
-        <v>1.1</v>
-      </c>
-      <c r="V34">
-        <v>3.6</v>
-      </c>
-      <c r="W34">
-        <v>2.13</v>
-      </c>
-      <c r="X34">
-        <v>1.25</v>
-      </c>
-      <c r="Y34">
-        <v>1.97</v>
-      </c>
-      <c r="Z34">
-        <v>1.37</v>
-      </c>
-      <c r="AA34">
-        <v>3.34</v>
-      </c>
-      <c r="AB34">
-        <v>1.13</v>
-      </c>
-      <c r="AC34">
-        <v>12.5</v>
-      </c>
-      <c r="AD34">
-        <v>7.5</v>
-      </c>
-      <c r="AE34">
-        <v>1.08</v>
-      </c>
-      <c r="AF34">
-        <v>1.19</v>
-      </c>
-      <c r="AG34">
-        <v>1.28</v>
-      </c>
       <c r="AH34">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="AI34">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>45144</v>
@@ -4990,13 +4990,13 @@
         <v>244</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I35">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="J35">
         <v>1.02</v>
@@ -5011,10 +5011,10 @@
         <v>4.5</v>
       </c>
       <c r="N35">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O35">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="P35">
         <v>1.28</v>
@@ -5038,10 +5038,10 @@
         <v>1.17</v>
       </c>
       <c r="W35">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="X35">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="Y35">
         <v>1.44</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
         <v>45144</v>
@@ -5097,96 +5097,96 @@
         <v>245</v>
       </c>
       <c r="G36">
-        <v>2.5</v>
+        <v>1.69</v>
       </c>
       <c r="H36">
+        <v>3.65</v>
+      </c>
+      <c r="I36">
+        <v>3.9</v>
+      </c>
+      <c r="J36">
+        <v>1.03</v>
+      </c>
+      <c r="K36">
+        <v>17</v>
+      </c>
+      <c r="L36">
+        <v>1.22</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>1.61</v>
+      </c>
+      <c r="O36">
+        <v>2.15</v>
+      </c>
+      <c r="P36">
+        <v>1.3</v>
+      </c>
+      <c r="Q36">
         <v>3.4</v>
       </c>
-      <c r="I36">
-        <v>2.5</v>
-      </c>
-      <c r="J36">
-        <v>1.02</v>
-      </c>
-      <c r="K36">
-        <v>12</v>
-      </c>
-      <c r="L36">
-        <v>1.17</v>
-      </c>
-      <c r="M36">
-        <v>4.5</v>
-      </c>
-      <c r="N36">
-        <v>1.57</v>
-      </c>
-      <c r="O36">
-        <v>2.35</v>
-      </c>
-      <c r="P36">
-        <v>1.29</v>
-      </c>
-      <c r="Q36">
-        <v>3.5</v>
-      </c>
       <c r="R36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="T36">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="U36">
         <v>1.18</v>
       </c>
       <c r="V36">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="W36">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="Y36">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="Z36">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AA36">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="AB36">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AC36">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="AD36">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AG36">
+        <v>1.31</v>
+      </c>
+      <c r="AH36">
         <v>1.56</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>1.88</v>
-      </c>
-      <c r="AI36">
-        <v>2.3</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
         <v>45144</v>
@@ -5195,7 +5195,7 @@
         <v>79</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>140</v>
@@ -5204,96 +5204,96 @@
         <v>246</v>
       </c>
       <c r="G37">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="H37">
         <v>3.2</v>
       </c>
       <c r="I37">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="J37">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L37">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N37">
+        <v>1.55</v>
+      </c>
+      <c r="O37">
+        <v>2.31</v>
+      </c>
+      <c r="P37">
+        <v>1.29</v>
+      </c>
+      <c r="Q37">
+        <v>3.5</v>
+      </c>
+      <c r="R37">
+        <v>1.5</v>
+      </c>
+      <c r="S37">
+        <v>2.5</v>
+      </c>
+      <c r="T37">
+        <v>1.3</v>
+      </c>
+      <c r="U37">
+        <v>1.18</v>
+      </c>
+      <c r="V37">
+        <v>1.83</v>
+      </c>
+      <c r="W37">
+        <v>1.67</v>
+      </c>
+      <c r="X37">
+        <v>0.89</v>
+      </c>
+      <c r="Y37">
+        <v>1.47</v>
+      </c>
+      <c r="Z37">
+        <v>1.18</v>
+      </c>
+      <c r="AA37">
+        <v>2.65</v>
+      </c>
+      <c r="AB37">
+        <v>1.71</v>
+      </c>
+      <c r="AC37">
+        <v>5.75</v>
+      </c>
+      <c r="AD37">
+        <v>2.35</v>
+      </c>
+      <c r="AE37">
+        <v>1.14</v>
+      </c>
+      <c r="AF37">
+        <v>1.27</v>
+      </c>
+      <c r="AG37">
+        <v>1.56</v>
+      </c>
+      <c r="AH37">
+        <v>1.88</v>
+      </c>
+      <c r="AI37">
         <v>2.3</v>
-      </c>
-      <c r="O37">
-        <v>1.62</v>
-      </c>
-      <c r="P37">
-        <v>1.45</v>
-      </c>
-      <c r="Q37">
-        <v>2.75</v>
-      </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
-      <c r="S37">
-        <v>1.92</v>
-      </c>
-      <c r="T37">
-        <v>1.6</v>
-      </c>
-      <c r="U37">
-        <v>1.28</v>
-      </c>
-      <c r="V37">
-        <v>1.4</v>
-      </c>
-      <c r="W37">
-        <v>2</v>
-      </c>
-      <c r="X37">
-        <v>1.11</v>
-      </c>
-      <c r="Y37">
-        <v>1.39</v>
-      </c>
-      <c r="Z37">
-        <v>1.27</v>
-      </c>
-      <c r="AA37">
-        <v>2.66</v>
-      </c>
-      <c r="AB37">
-        <v>2.3</v>
-      </c>
-      <c r="AC37">
-        <v>7.5</v>
-      </c>
-      <c r="AD37">
-        <v>1.88</v>
-      </c>
-      <c r="AE37">
-        <v>1.17</v>
-      </c>
-      <c r="AF37">
-        <v>1.26</v>
-      </c>
-      <c r="AG37">
-        <v>1.49</v>
-      </c>
-      <c r="AH37">
-        <v>1.93</v>
-      </c>
-      <c r="AI37">
-        <v>2.4</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>45144</v>
@@ -5311,13 +5311,13 @@
         <v>247</v>
       </c>
       <c r="G38">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3.59</v>
       </c>
       <c r="I38">
-        <v>4.75</v>
+        <v>4.17</v>
       </c>
       <c r="J38">
         <v>1.02</v>
@@ -5332,10 +5332,10 @@
         <v>6</v>
       </c>
       <c r="N38">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O38">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="P38">
         <v>1.22</v>
@@ -5359,10 +5359,10 @@
         <v>2.45</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="X38">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="Y38">
         <v>1.51</v>
@@ -5418,13 +5418,13 @@
         <v>248</v>
       </c>
       <c r="G39">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H39">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="I39">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J39">
         <v>1.03</v>
@@ -5439,10 +5439,10 @@
         <v>4.5</v>
       </c>
       <c r="N39">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P39">
         <v>1.3</v>
@@ -5466,7 +5466,7 @@
         <v>2.45</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         <v>3.06</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AG39">
         <v>1.32</v>
@@ -5525,13 +5525,13 @@
         <v>249</v>
       </c>
       <c r="G40">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H40">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I40">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="J40">
         <v>1.05</v>
@@ -5546,10 +5546,10 @@
         <v>3.5</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O40">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P40">
         <v>1.36</v>
@@ -5573,10 +5573,10 @@
         <v>1.5</v>
       </c>
       <c r="W40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X40">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="Y40">
         <v>0.8</v>
@@ -5632,13 +5632,13 @@
         <v>250</v>
       </c>
       <c r="G41">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I41">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J41">
         <v>1.01</v>
@@ -5653,10 +5653,10 @@
         <v>4.2</v>
       </c>
       <c r="N41">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O41">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P41">
         <v>1.33</v>
@@ -5680,7 +5680,7 @@
         <v>1.75</v>
       </c>
       <c r="W41">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X41">
         <v>3</v>
@@ -5704,7 +5704,7 @@
         <v>2.2</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF41">
         <v>1.28</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2">
         <v>45144</v>
@@ -5846,13 +5846,13 @@
         <v>252</v>
       </c>
       <c r="G43">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="H43">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I43">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="J43">
         <v>1.02</v>
@@ -5867,10 +5867,10 @@
         <v>4.75</v>
       </c>
       <c r="N43">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="O43">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="P43">
         <v>1.25</v>
@@ -5894,10 +5894,10 @@
         <v>1.38</v>
       </c>
       <c r="W43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="Y43">
         <v>1.63</v>
@@ -6001,10 +6001,10 @@
         <v>3</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -6167,13 +6167,13 @@
         <v>255</v>
       </c>
       <c r="G46">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="H46">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I46">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J46">
         <v>1.03</v>
@@ -6188,10 +6188,10 @@
         <v>4.5</v>
       </c>
       <c r="N46">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O46">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="P46">
         <v>1.28</v>
@@ -6215,10 +6215,10 @@
         <v>2.3</v>
       </c>
       <c r="W46">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="X46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="Y46">
         <v>1.78</v>
@@ -6274,13 +6274,13 @@
         <v>256</v>
       </c>
       <c r="G47">
-        <v>5.32</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>3.77</v>
+        <v>4.4</v>
       </c>
       <c r="I47">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="J47">
         <v>1.03</v>
@@ -6298,7 +6298,7 @@
         <v>1.67</v>
       </c>
       <c r="O47">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P47">
         <v>1.31</v>
@@ -6322,10 +6322,10 @@
         <v>1.06</v>
       </c>
       <c r="W47">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="X47">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="Y47">
         <v>1.29</v>
@@ -6381,13 +6381,13 @@
         <v>257</v>
       </c>
       <c r="G48">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="H48">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I48">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="J48">
         <v>1.11</v>
@@ -6396,10 +6396,10 @@
         <v>6.7</v>
       </c>
       <c r="L48">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="M48">
-        <v>2.31</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
         <v>2.58</v>
@@ -6429,10 +6429,10 @@
         <v>1.65</v>
       </c>
       <c r="W48">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="X48">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="Y48">
         <v>1.41</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG48">
         <v>1.6</v>
@@ -6488,13 +6488,13 @@
         <v>258</v>
       </c>
       <c r="G49">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H49">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I49">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="J49">
         <v>1.03</v>
@@ -6536,7 +6536,7 @@
         <v>1.27</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
         <v>45144</v>
@@ -6702,96 +6702,96 @@
         <v>260</v>
       </c>
       <c r="G51">
+        <v>2.08</v>
+      </c>
+      <c r="H51">
+        <v>3.2</v>
+      </c>
+      <c r="I51">
+        <v>3.15</v>
+      </c>
+      <c r="J51">
+        <v>1.04</v>
+      </c>
+      <c r="K51">
+        <v>7.5</v>
+      </c>
+      <c r="L51">
+        <v>1.38</v>
+      </c>
+      <c r="M51">
         <v>2.75</v>
       </c>
-      <c r="H51">
-        <v>3.75</v>
-      </c>
-      <c r="I51">
-        <v>2.3</v>
-      </c>
-      <c r="J51">
-        <v>1.02</v>
-      </c>
-      <c r="K51">
-        <v>12</v>
-      </c>
-      <c r="L51">
-        <v>1.18</v>
-      </c>
-      <c r="M51">
-        <v>4.5</v>
-      </c>
       <c r="N51">
+        <v>1.98</v>
+      </c>
+      <c r="O51">
+        <v>1.83</v>
+      </c>
+      <c r="P51">
         <v>1.47</v>
       </c>
-      <c r="O51">
-        <v>2.5</v>
-      </c>
-      <c r="P51">
-        <v>1.25</v>
-      </c>
       <c r="Q51">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="R51">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="S51">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="T51">
+        <v>1.31</v>
+      </c>
+      <c r="U51">
+        <v>1.33</v>
+      </c>
+      <c r="V51">
+        <v>1.69</v>
+      </c>
+      <c r="W51">
+        <v>3</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1.52</v>
+      </c>
+      <c r="AA51">
+        <v>1.52</v>
+      </c>
+      <c r="AB51">
+        <v>1.85</v>
+      </c>
+      <c r="AC51">
+        <v>7.4</v>
+      </c>
+      <c r="AD51">
+        <v>2.36</v>
+      </c>
+      <c r="AE51">
+        <v>1.35</v>
+      </c>
+      <c r="AF51">
         <v>1.6</v>
       </c>
-      <c r="U51">
-        <v>1.3</v>
-      </c>
-      <c r="V51">
-        <v>1.42</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0.89</v>
-      </c>
-      <c r="Z51">
-        <v>0.96</v>
-      </c>
-      <c r="AA51">
-        <v>1.85</v>
-      </c>
-      <c r="AB51">
-        <v>2.1</v>
-      </c>
-      <c r="AC51">
-        <v>8.5</v>
-      </c>
-      <c r="AD51">
-        <v>1.91</v>
-      </c>
-      <c r="AE51">
-        <v>1.11</v>
-      </c>
-      <c r="AF51">
-        <v>1.22</v>
-      </c>
       <c r="AG51">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="AH51">
-        <v>1.71</v>
+        <v>2.55</v>
       </c>
       <c r="AI51">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2">
         <v>45144</v>
@@ -6800,7 +6800,7 @@
         <v>82</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>155</v>
@@ -6809,96 +6809,96 @@
         <v>261</v>
       </c>
       <c r="G52">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="H52">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="I52">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="J52">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K52">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L52">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M52">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="O52">
-        <v>2.62</v>
+        <v>2.05</v>
       </c>
       <c r="P52">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q52">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="R52">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S52">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="T52">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="U52">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="V52">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AC52">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="AD52">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="AE52">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AF52">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AG52">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="AH52">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
       <c r="AI52">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2">
         <v>45144</v>
@@ -6907,7 +6907,7 @@
         <v>82</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
         <v>156</v>
@@ -6916,96 +6916,96 @@
         <v>262</v>
       </c>
       <c r="G53">
-        <v>1.72</v>
+        <v>2.75</v>
       </c>
       <c r="H53">
-        <v>3.53</v>
+        <v>3.75</v>
       </c>
       <c r="I53">
-        <v>3.29</v>
+        <v>2.3</v>
       </c>
       <c r="J53">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L53">
+        <v>1.18</v>
+      </c>
+      <c r="M53">
+        <v>4.5</v>
+      </c>
+      <c r="N53">
+        <v>1.53</v>
+      </c>
+      <c r="O53">
+        <v>2.4</v>
+      </c>
+      <c r="P53">
+        <v>1.25</v>
+      </c>
+      <c r="Q53">
+        <v>3.6</v>
+      </c>
+      <c r="R53">
+        <v>1.47</v>
+      </c>
+      <c r="S53">
+        <v>2.6</v>
+      </c>
+      <c r="T53">
+        <v>1.6</v>
+      </c>
+      <c r="U53">
+        <v>1.3</v>
+      </c>
+      <c r="V53">
+        <v>1.42</v>
+      </c>
+      <c r="W53">
+        <v>1.5</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0.89</v>
+      </c>
+      <c r="Z53">
+        <v>0.96</v>
+      </c>
+      <c r="AA53">
+        <v>1.85</v>
+      </c>
+      <c r="AB53">
+        <v>2.1</v>
+      </c>
+      <c r="AC53">
+        <v>8.5</v>
+      </c>
+      <c r="AD53">
+        <v>1.91</v>
+      </c>
+      <c r="AE53">
+        <v>1.11</v>
+      </c>
+      <c r="AF53">
         <v>1.22</v>
       </c>
-      <c r="M53">
-        <v>4</v>
-      </c>
-      <c r="N53">
-        <v>1.65</v>
-      </c>
-      <c r="O53">
-        <v>2.12</v>
-      </c>
-      <c r="P53">
-        <v>1.33</v>
-      </c>
-      <c r="Q53">
-        <v>3.25</v>
-      </c>
-      <c r="R53">
-        <v>1.62</v>
-      </c>
-      <c r="S53">
+      <c r="AG53">
+        <v>1.41</v>
+      </c>
+      <c r="AH53">
+        <v>1.71</v>
+      </c>
+      <c r="AI53">
         <v>2.2</v>
-      </c>
-      <c r="T53">
-        <v>1.31</v>
-      </c>
-      <c r="U53">
-        <v>1.28</v>
-      </c>
-      <c r="V53">
-        <v>1.73</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>1.4</v>
-      </c>
-      <c r="AC53">
-        <v>9.9</v>
-      </c>
-      <c r="AD53">
-        <v>3.44</v>
-      </c>
-      <c r="AE53">
-        <v>1.16</v>
-      </c>
-      <c r="AF53">
-        <v>1.33</v>
-      </c>
-      <c r="AG53">
-        <v>1.6</v>
-      </c>
-      <c r="AH53">
-        <v>2.05</v>
-      </c>
-      <c r="AI53">
-        <v>2.7</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2">
         <v>45144</v>
@@ -7023,91 +7023,91 @@
         <v>263</v>
       </c>
       <c r="G54">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="H54">
-        <v>3.42</v>
+        <v>4.05</v>
       </c>
       <c r="I54">
-        <v>3.01</v>
+        <v>4.3</v>
       </c>
       <c r="J54">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K54">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="L54">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N54">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="O54">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="P54">
+        <v>1.25</v>
+      </c>
+      <c r="Q54">
+        <v>3.6</v>
+      </c>
+      <c r="R54">
+        <v>1.5</v>
+      </c>
+      <c r="S54">
+        <v>2.5</v>
+      </c>
+      <c r="T54">
+        <v>1.17</v>
+      </c>
+      <c r="U54">
+        <v>1.18</v>
+      </c>
+      <c r="V54">
+        <v>2.05</v>
+      </c>
+      <c r="W54">
+        <v>3</v>
+      </c>
+      <c r="X54">
+        <v>0.5</v>
+      </c>
+      <c r="Y54">
+        <v>2.56</v>
+      </c>
+      <c r="Z54">
+        <v>1.14</v>
+      </c>
+      <c r="AA54">
+        <v>3.7</v>
+      </c>
+      <c r="AB54">
+        <v>1.45</v>
+      </c>
+      <c r="AC54">
+        <v>9.5</v>
+      </c>
+      <c r="AD54">
+        <v>3.27</v>
+      </c>
+      <c r="AE54">
+        <v>1.1</v>
+      </c>
+      <c r="AF54">
+        <v>1.16</v>
+      </c>
+      <c r="AG54">
+        <v>1.27</v>
+      </c>
+      <c r="AH54">
         <v>1.47</v>
       </c>
-      <c r="Q54">
-        <v>2.58</v>
-      </c>
-      <c r="R54">
-        <v>1.94</v>
-      </c>
-      <c r="S54">
-        <v>1.81</v>
-      </c>
-      <c r="T54">
-        <v>1.31</v>
-      </c>
-      <c r="U54">
-        <v>1.33</v>
-      </c>
-      <c r="V54">
-        <v>1.69</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>1.52</v>
-      </c>
-      <c r="AA54">
-        <v>1.52</v>
-      </c>
-      <c r="AB54">
-        <v>1.85</v>
-      </c>
-      <c r="AC54">
-        <v>7.4</v>
-      </c>
-      <c r="AD54">
-        <v>2.36</v>
-      </c>
-      <c r="AE54">
-        <v>1.35</v>
-      </c>
-      <c r="AF54">
-        <v>1.6</v>
-      </c>
-      <c r="AG54">
-        <v>2</v>
-      </c>
-      <c r="AH54">
-        <v>2.55</v>
-      </c>
       <c r="AI54">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -7130,13 +7130,13 @@
         <v>264</v>
       </c>
       <c r="G55">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H55">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="I55">
-        <v>17.33</v>
+        <v>25</v>
       </c>
       <c r="J55">
         <v>1.01</v>
@@ -7151,10 +7151,10 @@
         <v>7.35</v>
       </c>
       <c r="N55">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="O55">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
         <v>1.15</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2">
         <v>45144</v>
@@ -7237,7 +7237,7 @@
         <v>265</v>
       </c>
       <c r="G56">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H56">
         <v>4.4</v>
@@ -7285,10 +7285,10 @@
         <v>3.5</v>
       </c>
       <c r="W56">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X56">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y56">
         <v>2.08</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>45144</v>
@@ -7335,7 +7335,7 @@
         <v>84</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
         <v>160</v>
@@ -7344,91 +7344,91 @@
         <v>266</v>
       </c>
       <c r="G57">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="I57">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="J57">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K57">
-        <v>20.5</v>
+        <v>10.75</v>
       </c>
       <c r="L57">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="M57">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N57">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>2.26</v>
+        <v>1.7</v>
       </c>
       <c r="P57">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="Q57">
-        <v>3.68</v>
+        <v>2.75</v>
       </c>
       <c r="R57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="U57">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V57">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W57">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>0.88</v>
+        <v>3</v>
       </c>
       <c r="Y57">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="AB57">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AC57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD57">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF57">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AG57">
-        <v>1.33</v>
+        <v>2.44</v>
       </c>
       <c r="AH57">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="AI57">
-        <v>1.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -7442,7 +7442,7 @@
         <v>84</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E58" t="s">
         <v>161</v>
@@ -7451,91 +7451,91 @@
         <v>267</v>
       </c>
       <c r="G58">
-        <v>3.2</v>
+        <v>1.15</v>
       </c>
       <c r="H58">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="I58">
-        <v>2.2</v>
+        <v>14</v>
       </c>
       <c r="J58">
         <v>1.01</v>
       </c>
       <c r="K58">
-        <v>9.699999999999999</v>
+        <v>17</v>
       </c>
       <c r="L58">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="M58">
-        <v>3.64</v>
+        <v>9.5</v>
       </c>
       <c r="N58">
-        <v>1.79</v>
+        <v>1.2</v>
       </c>
       <c r="O58">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="P58">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="Q58">
-        <v>2.98</v>
+        <v>5.5</v>
       </c>
       <c r="R58">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="U58">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="V58">
-        <v>1.36</v>
+        <v>4.75</v>
       </c>
       <c r="W58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X58">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="AC58">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD58">
-        <v>1.8</v>
+        <v>5.67</v>
       </c>
       <c r="AE58">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF58">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AG58">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AH58">
         <v>1.98</v>
       </c>
       <c r="AI58">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -7549,7 +7549,7 @@
         <v>84</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
         <v>162</v>
@@ -7558,96 +7558,96 @@
         <v>268</v>
       </c>
       <c r="G59">
-        <v>2.14</v>
+        <v>4.05</v>
       </c>
       <c r="H59">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I59">
+        <v>1.75</v>
+      </c>
+      <c r="J59">
+        <v>1.02</v>
+      </c>
+      <c r="K59">
+        <v>17</v>
+      </c>
+      <c r="L59">
+        <v>1.18</v>
+      </c>
+      <c r="M59">
+        <v>4.75</v>
+      </c>
+      <c r="N59">
+        <v>1.55</v>
+      </c>
+      <c r="O59">
+        <v>2.38</v>
+      </c>
+      <c r="P59">
+        <v>1.28</v>
+      </c>
+      <c r="Q59">
         <v>3.4</v>
       </c>
-      <c r="J59">
-        <v>1.05</v>
-      </c>
-      <c r="K59">
-        <v>8</v>
-      </c>
-      <c r="L59">
-        <v>1.3</v>
-      </c>
-      <c r="M59">
-        <v>3.2</v>
-      </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="O59">
-        <v>1.81</v>
-      </c>
-      <c r="P59">
-        <v>1.4</v>
-      </c>
-      <c r="Q59">
-        <v>2.75</v>
-      </c>
       <c r="R59">
+        <v>1.57</v>
+      </c>
+      <c r="S59">
+        <v>2.35</v>
+      </c>
+      <c r="T59">
+        <v>2.1</v>
+      </c>
+      <c r="U59">
+        <v>1.2</v>
+      </c>
+      <c r="V59">
+        <v>1.22</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>3.16</v>
+      </c>
+      <c r="AC59">
+        <v>8.5</v>
+      </c>
+      <c r="AD59">
+        <v>1.51</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>1.42</v>
+      </c>
+      <c r="AG59">
         <v>1.8</v>
       </c>
-      <c r="S59">
-        <v>1.91</v>
-      </c>
-      <c r="T59">
-        <v>1.33</v>
-      </c>
-      <c r="U59">
-        <v>1.29</v>
-      </c>
-      <c r="V59">
-        <v>1.7</v>
-      </c>
-      <c r="W59">
-        <v>1.57</v>
-      </c>
-      <c r="X59">
-        <v>0.57</v>
-      </c>
-      <c r="Y59">
-        <v>1.27</v>
-      </c>
-      <c r="Z59">
-        <v>1.26</v>
-      </c>
-      <c r="AA59">
-        <v>2.53</v>
-      </c>
-      <c r="AB59">
-        <v>1.62</v>
-      </c>
-      <c r="AC59">
-        <v>8</v>
-      </c>
-      <c r="AD59">
-        <v>2.63</v>
-      </c>
-      <c r="AE59">
-        <v>1.26</v>
-      </c>
-      <c r="AF59">
-        <v>1.5</v>
-      </c>
-      <c r="AG59">
-        <v>1.88</v>
-      </c>
       <c r="AH59">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AI59">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>45144</v>
@@ -7665,91 +7665,91 @@
         <v>269</v>
       </c>
       <c r="G60">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H60">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="I60">
-        <v>1.58</v>
+        <v>2.95</v>
       </c>
       <c r="J60">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K60">
-        <v>26.5</v>
+        <v>10</v>
       </c>
       <c r="L60">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N60">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="O60">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>2.87</v>
       </c>
       <c r="R60">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="S60">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="T60">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="U60">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="V60">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="W60">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="X60">
         <v>1.38</v>
       </c>
       <c r="Y60">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="Z60">
+        <v>1.59</v>
+      </c>
+      <c r="AA60">
+        <v>2.98</v>
+      </c>
+      <c r="AB60">
+        <v>2.05</v>
+      </c>
+      <c r="AC60">
+        <v>8</v>
+      </c>
+      <c r="AD60">
         <v>1.95</v>
       </c>
-      <c r="AA60">
-        <v>3.44</v>
-      </c>
-      <c r="AB60">
-        <v>3.1</v>
-      </c>
-      <c r="AC60">
-        <v>9.5</v>
-      </c>
-      <c r="AD60">
-        <v>1.44</v>
-      </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF60">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AG60">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="AH60">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="AI60">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -7763,7 +7763,7 @@
         <v>84</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
         <v>164</v>
@@ -7772,91 +7772,91 @@
         <v>270</v>
       </c>
       <c r="G61">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H61">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I61">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J61">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L61">
+        <v>1.22</v>
+      </c>
+      <c r="M61">
+        <v>4.2</v>
+      </c>
+      <c r="N61">
+        <v>1.68</v>
+      </c>
+      <c r="O61">
+        <v>2.1</v>
+      </c>
+      <c r="P61">
+        <v>1.33</v>
+      </c>
+      <c r="Q61">
+        <v>3.25</v>
+      </c>
+      <c r="R61">
+        <v>1.57</v>
+      </c>
+      <c r="S61">
+        <v>2.25</v>
+      </c>
+      <c r="T61">
+        <v>1.47</v>
+      </c>
+      <c r="U61">
         <v>1.25</v>
       </c>
-      <c r="M61">
-        <v>3.6</v>
-      </c>
-      <c r="N61">
-        <v>1.81</v>
-      </c>
-      <c r="O61">
-        <v>2</v>
-      </c>
-      <c r="P61">
-        <v>1.36</v>
-      </c>
-      <c r="Q61">
-        <v>2.87</v>
-      </c>
-      <c r="R61">
-        <v>1.65</v>
-      </c>
-      <c r="S61">
-        <v>2.1</v>
-      </c>
-      <c r="T61">
-        <v>1.42</v>
-      </c>
-      <c r="U61">
-        <v>1.29</v>
-      </c>
       <c r="V61">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W61">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X61">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="Y61">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AB61">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AC61">
         <v>8</v>
       </c>
       <c r="AD61">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AE61">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AF61">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AG61">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AH61">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AI61">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -7870,7 +7870,7 @@
         <v>84</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
         <v>165</v>
@@ -7879,91 +7879,91 @@
         <v>271</v>
       </c>
       <c r="G62">
-        <v>4.05</v>
+        <v>2.16</v>
       </c>
       <c r="H62">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I62">
+        <v>3.4</v>
+      </c>
+      <c r="J62">
+        <v>1.05</v>
+      </c>
+      <c r="K62">
+        <v>8</v>
+      </c>
+      <c r="L62">
+        <v>1.3</v>
+      </c>
+      <c r="M62">
+        <v>3.2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>1.81</v>
+      </c>
+      <c r="P62">
+        <v>1.4</v>
+      </c>
+      <c r="Q62">
+        <v>2.75</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>1.91</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>1.29</v>
+      </c>
+      <c r="V62">
+        <v>1.7</v>
+      </c>
+      <c r="W62">
         <v>1.75</v>
       </c>
-      <c r="J62">
-        <v>1.02</v>
-      </c>
-      <c r="K62">
-        <v>17</v>
-      </c>
-      <c r="L62">
-        <v>1.18</v>
-      </c>
-      <c r="M62">
-        <v>4.75</v>
-      </c>
-      <c r="N62">
-        <v>1.55</v>
-      </c>
-      <c r="O62">
-        <v>2.38</v>
-      </c>
-      <c r="P62">
-        <v>1.28</v>
-      </c>
-      <c r="Q62">
-        <v>3.4</v>
-      </c>
-      <c r="R62">
-        <v>1.57</v>
-      </c>
-      <c r="S62">
-        <v>2.35</v>
-      </c>
-      <c r="T62">
-        <v>2.1</v>
-      </c>
-      <c r="U62">
-        <v>1.2</v>
-      </c>
-      <c r="V62">
-        <v>1.22</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
       <c r="X62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AB62">
-        <v>3.16</v>
+        <v>1.62</v>
       </c>
       <c r="AC62">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD62">
-        <v>1.51</v>
+        <v>2.63</v>
       </c>
       <c r="AE62">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AF62">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AG62">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AH62">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AI62">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -7977,7 +7977,7 @@
         <v>84</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
         <v>166</v>
@@ -7986,91 +7986,91 @@
         <v>272</v>
       </c>
       <c r="G63">
-        <v>1.14</v>
+        <v>3.2</v>
       </c>
       <c r="H63">
-        <v>8.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="I63">
-        <v>17</v>
+        <v>2.23</v>
       </c>
       <c r="J63">
         <v>1.01</v>
       </c>
       <c r="K63">
-        <v>17</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L63">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="M63">
-        <v>9.5</v>
+        <v>3.64</v>
       </c>
       <c r="N63">
+        <v>1.79</v>
+      </c>
+      <c r="O63">
+        <v>2.02</v>
+      </c>
+      <c r="P63">
+        <v>1.37</v>
+      </c>
+      <c r="Q63">
+        <v>2.98</v>
+      </c>
+      <c r="R63">
+        <v>1.65</v>
+      </c>
+      <c r="S63">
+        <v>2.18</v>
+      </c>
+      <c r="T63">
+        <v>1.65</v>
+      </c>
+      <c r="U63">
+        <v>1.25</v>
+      </c>
+      <c r="V63">
+        <v>1.36</v>
+      </c>
+      <c r="W63">
+        <v>1.75</v>
+      </c>
+      <c r="X63">
+        <v>1.13</v>
+      </c>
+      <c r="Y63">
+        <v>1.26</v>
+      </c>
+      <c r="Z63">
         <v>1.22</v>
       </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
-      <c r="P63">
-        <v>1.14</v>
-      </c>
-      <c r="Q63">
-        <v>5.5</v>
-      </c>
-      <c r="R63">
-        <v>1.75</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>1.02</v>
-      </c>
-      <c r="U63">
-        <v>1.04</v>
-      </c>
-      <c r="V63">
-        <v>4.75</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
       <c r="AA63">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB63">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="AC63">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD63">
-        <v>5.67</v>
+        <v>1.8</v>
       </c>
       <c r="AE63">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF63">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AG63">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AH63">
         <v>1.98</v>
       </c>
       <c r="AI63">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -8084,7 +8084,7 @@
         <v>84</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
         <v>167</v>
@@ -8093,96 +8093,96 @@
         <v>273</v>
       </c>
       <c r="G64">
-        <v>2.45</v>
+        <v>3.95</v>
       </c>
       <c r="H64">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>1.81</v>
       </c>
       <c r="J64">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K64">
-        <v>13</v>
+        <v>20.5</v>
       </c>
       <c r="L64">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="M64">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N64">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="O64">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="P64">
+        <v>1.26</v>
+      </c>
+      <c r="Q64">
+        <v>3.68</v>
+      </c>
+      <c r="R64">
+        <v>1.5</v>
+      </c>
+      <c r="S64">
+        <v>2.4</v>
+      </c>
+      <c r="T64">
+        <v>1.96</v>
+      </c>
+      <c r="U64">
+        <v>1.24</v>
+      </c>
+      <c r="V64">
+        <v>1.26</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>1.11</v>
+      </c>
+      <c r="Y64">
+        <v>1.47</v>
+      </c>
+      <c r="Z64">
+        <v>1.7</v>
+      </c>
+      <c r="AA64">
+        <v>3.17</v>
+      </c>
+      <c r="AB64">
+        <v>2.88</v>
+      </c>
+      <c r="AC64">
+        <v>9</v>
+      </c>
+      <c r="AD64">
+        <v>1.53</v>
+      </c>
+      <c r="AE64">
+        <v>1.1</v>
+      </c>
+      <c r="AF64">
+        <v>1.2</v>
+      </c>
+      <c r="AG64">
         <v>1.33</v>
       </c>
-      <c r="Q64">
-        <v>3.25</v>
-      </c>
-      <c r="R64">
-        <v>1.57</v>
-      </c>
-      <c r="S64">
-        <v>2.25</v>
-      </c>
-      <c r="T64">
-        <v>1.47</v>
-      </c>
-      <c r="U64">
-        <v>1.25</v>
-      </c>
-      <c r="V64">
-        <v>1.57</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>1.91</v>
-      </c>
-      <c r="AC64">
-        <v>8</v>
-      </c>
-      <c r="AD64">
-        <v>2.2</v>
-      </c>
-      <c r="AE64">
-        <v>1.2</v>
-      </c>
-      <c r="AF64">
-        <v>1.39</v>
-      </c>
-      <c r="AG64">
-        <v>1.7</v>
-      </c>
       <c r="AH64">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="AI64">
-        <v>3</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B65" s="2">
         <v>45144</v>
@@ -8191,7 +8191,7 @@
         <v>84</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
         <v>168</v>
@@ -8200,91 +8200,91 @@
         <v>274</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H65">
-        <v>3.17</v>
+        <v>4.5</v>
       </c>
       <c r="I65">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="J65">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K65">
-        <v>10.75</v>
+        <v>26.5</v>
       </c>
       <c r="L65">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="M65">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N65">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="P65">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="Q65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="S65">
+        <v>2.5</v>
+      </c>
+      <c r="T65">
+        <v>2.2</v>
+      </c>
+      <c r="U65">
+        <v>1.23</v>
+      </c>
+      <c r="V65">
+        <v>1.2</v>
+      </c>
+      <c r="W65">
+        <v>1.57</v>
+      </c>
+      <c r="X65">
+        <v>1.22</v>
+      </c>
+      <c r="Y65">
+        <v>1.49</v>
+      </c>
+      <c r="Z65">
         <v>1.95</v>
       </c>
-      <c r="T65">
-        <v>1.65</v>
-      </c>
-      <c r="U65">
-        <v>1.25</v>
-      </c>
-      <c r="V65">
-        <v>1.25</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
       <c r="AA65">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -8355,10 +8355,10 @@
         <v>1.33</v>
       </c>
       <c r="W66">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X66">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y66">
         <v>1.68</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B67" s="2">
         <v>45144</v>
@@ -8414,96 +8414,96 @@
         <v>276</v>
       </c>
       <c r="G67">
-        <v>3.45</v>
+        <v>2.56</v>
       </c>
       <c r="H67">
-        <v>3.22</v>
+        <v>3.53</v>
       </c>
       <c r="I67">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="J67">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K67">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="L67">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M67">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O67">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="P67">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="T67">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="U67">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V67">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X67">
         <v>3</v>
       </c>
       <c r="Y67">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="Z67">
-        <v>0.93</v>
+        <v>1.97</v>
       </c>
       <c r="AA67">
-        <v>2.66</v>
+        <v>3.53</v>
       </c>
       <c r="AB67">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AC67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD67">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AE67">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF67">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AG67">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AH67">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="AI67">
-        <v>3.08</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B68" s="2">
         <v>45144</v>
@@ -8521,91 +8521,91 @@
         <v>277</v>
       </c>
       <c r="G68">
-        <v>2.02</v>
+        <v>3.2</v>
       </c>
       <c r="H68">
-        <v>3.06</v>
+        <v>3.45</v>
       </c>
       <c r="I68">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="J68">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K68">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="L68">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="O68">
         <v>1.79</v>
       </c>
       <c r="P68">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R68">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
+        <v>1.7</v>
+      </c>
+      <c r="U68">
+        <v>1.25</v>
+      </c>
+      <c r="V68">
+        <v>1.3</v>
+      </c>
+      <c r="W68">
+        <v>2</v>
+      </c>
+      <c r="X68">
+        <v>2</v>
+      </c>
+      <c r="Y68">
+        <v>1.73</v>
+      </c>
+      <c r="Z68">
+        <v>0.93</v>
+      </c>
+      <c r="AA68">
+        <v>2.66</v>
+      </c>
+      <c r="AB68">
+        <v>2.1</v>
+      </c>
+      <c r="AC68">
+        <v>8</v>
+      </c>
+      <c r="AD68">
+        <v>1.95</v>
+      </c>
+      <c r="AE68">
+        <v>1.24</v>
+      </c>
+      <c r="AF68">
+        <v>1.54</v>
+      </c>
+      <c r="AG68">
         <v>1.9</v>
       </c>
-      <c r="U68">
-        <v>1.2</v>
-      </c>
-      <c r="V68">
-        <v>1.2</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>3</v>
-      </c>
-      <c r="Y68">
-        <v>1.56</v>
-      </c>
-      <c r="Z68">
-        <v>1.97</v>
-      </c>
-      <c r="AA68">
-        <v>3.53</v>
-      </c>
-      <c r="AB68">
-        <v>2.16</v>
-      </c>
-      <c r="AC68">
-        <v>9</v>
-      </c>
-      <c r="AD68">
-        <v>1.88</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>1.29</v>
-      </c>
-      <c r="AG68">
-        <v>1.61</v>
-      </c>
       <c r="AH68">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="AI68">
-        <v>2.45</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="69" spans="1:35">
@@ -8628,13 +8628,13 @@
         <v>278</v>
       </c>
       <c r="G69">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="H69">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I69">
-        <v>6.96</v>
+        <v>8</v>
       </c>
       <c r="J69">
         <v>1.02</v>
@@ -8649,10 +8649,10 @@
         <v>3.26</v>
       </c>
       <c r="N69">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O69">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P69">
         <v>1.36</v>
@@ -8676,10 +8676,10 @@
         <v>2.75</v>
       </c>
       <c r="W69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X69">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y69">
         <v>1.45</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B70" s="2">
         <v>45144</v>
@@ -8726,7 +8726,7 @@
         <v>88</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
         <v>173</v>
@@ -8735,96 +8735,96 @@
         <v>279</v>
       </c>
       <c r="G70">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="H70">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I70">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="J70">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="L70">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M70">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N70">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="O70">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="P70">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="R70">
+        <v>1.73</v>
+      </c>
+      <c r="S70">
         <v>2</v>
       </c>
-      <c r="S70">
-        <v>1.75</v>
-      </c>
       <c r="T70">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="U70">
         <v>1.28</v>
       </c>
       <c r="V70">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="W70">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="X70">
-        <v>1.42</v>
+        <v>3</v>
       </c>
       <c r="Y70">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <v>1.64</v>
+        <v>2.15</v>
       </c>
       <c r="AC70">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AD70">
-        <v>2.78</v>
+        <v>2.03</v>
       </c>
       <c r="AE70">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AF70">
-        <v>1.91</v>
+        <v>1.49</v>
       </c>
       <c r="AG70">
-        <v>2.52</v>
+        <v>1.82</v>
       </c>
       <c r="AH70">
-        <v>3.42</v>
+        <v>2.33</v>
       </c>
       <c r="AI70">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="71" spans="1:35">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B71" s="2">
         <v>45144</v>
@@ -8833,7 +8833,7 @@
         <v>88</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
         <v>174</v>
@@ -8842,96 +8842,96 @@
         <v>280</v>
       </c>
       <c r="G71">
-        <v>7.02</v>
+        <v>1.43</v>
       </c>
       <c r="H71">
-        <v>4.29</v>
+        <v>4.4</v>
       </c>
       <c r="I71">
-        <v>1.23</v>
+        <v>5.45</v>
       </c>
       <c r="J71">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K71">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="L71">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="M71">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N71">
         <v>1.58</v>
       </c>
       <c r="O71">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q71">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T71">
-        <v>3.1</v>
+        <v>1.12</v>
       </c>
       <c r="U71">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="V71">
-        <v>1.04</v>
+        <v>2.63</v>
       </c>
       <c r="W71">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="X71">
         <v>2</v>
       </c>
       <c r="Y71">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>1.97</v>
+        <v>1.14</v>
       </c>
       <c r="AA71">
-        <v>3.03</v>
+        <v>1.14</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG71">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH71">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI71">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="72" spans="1:35">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B72" s="2">
         <v>45144</v>
@@ -8949,96 +8949,96 @@
         <v>281</v>
       </c>
       <c r="G72">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H72">
-        <v>3.55</v>
+        <v>9</v>
       </c>
       <c r="I72">
-        <v>3.45</v>
+        <v>13</v>
       </c>
       <c r="J72">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K72">
-        <v>12.5</v>
+        <v>35.5</v>
       </c>
       <c r="L72">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="M72">
-        <v>3.7</v>
+        <v>7.35</v>
       </c>
       <c r="N72">
-        <v>1.83</v>
+        <v>1.35</v>
       </c>
       <c r="O72">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="P72">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="Q72">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="R72">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="U72">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="V72">
-        <v>1.88</v>
+        <v>5.5</v>
       </c>
       <c r="W72">
         <v>3</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="Z72">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AA72">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="AB72">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="AC72">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD72">
-        <v>2.92</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE72">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AF72">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AG72">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="AH72">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="AI72">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="73" spans="1:35">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2">
         <v>45144</v>
@@ -9047,7 +9047,7 @@
         <v>88</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
         <v>176</v>
@@ -9056,96 +9056,96 @@
         <v>282</v>
       </c>
       <c r="G73">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H73">
-        <v>9</v>
+        <v>3.15</v>
       </c>
       <c r="I73">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J73">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K73">
-        <v>35.5</v>
+        <v>8</v>
       </c>
       <c r="L73">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="M73">
-        <v>7.35</v>
+        <v>3.3</v>
       </c>
       <c r="N73">
-        <v>1.31</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>3.15</v>
+        <v>1.68</v>
       </c>
       <c r="P73">
+        <v>1.4</v>
+      </c>
+      <c r="Q73">
+        <v>2.75</v>
+      </c>
+      <c r="R73">
+        <v>1.83</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>1.9</v>
+      </c>
+      <c r="U73">
+        <v>1.22</v>
+      </c>
+      <c r="V73">
         <v>1.18</v>
       </c>
-      <c r="Q73">
-        <v>4.5</v>
-      </c>
-      <c r="R73">
-        <v>2</v>
-      </c>
-      <c r="S73">
-        <v>1.75</v>
-      </c>
-      <c r="T73">
-        <v>1.04</v>
-      </c>
-      <c r="U73">
-        <v>1.08</v>
-      </c>
-      <c r="V73">
-        <v>5.5</v>
-      </c>
       <c r="W73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <v>1.08</v>
+        <v>2.5</v>
       </c>
       <c r="AC73">
-        <v>15</v>
+        <v>9.1</v>
       </c>
       <c r="AD73">
-        <v>9.300000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG73">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="AH73">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="AI73">
-        <v>1.93</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B74" s="2">
         <v>45144</v>
@@ -9154,7 +9154,7 @@
         <v>88</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
         <v>177</v>
@@ -9163,96 +9163,96 @@
         <v>283</v>
       </c>
       <c r="G74">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="H74">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="I74">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="J74">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K74">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="L74">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
+        <v>1.7</v>
+      </c>
+      <c r="O74">
+        <v>2.04</v>
+      </c>
+      <c r="P74">
+        <v>1.25</v>
+      </c>
+      <c r="Q74">
+        <v>3.56</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
         <v>1.9</v>
       </c>
-      <c r="O74">
-        <v>1.9</v>
-      </c>
-      <c r="P74">
-        <v>1.4</v>
-      </c>
-      <c r="Q74">
-        <v>2.75</v>
-      </c>
-      <c r="R74">
-        <v>1.73</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
       <c r="T74">
-        <v>1.47</v>
+        <v>3.1</v>
       </c>
       <c r="U74">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="V74">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AB74">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="AD74">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AE74">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF74">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AG74">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AH74">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AI74">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:35">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B75" s="2">
         <v>45144</v>
@@ -9270,91 +9270,91 @@
         <v>284</v>
       </c>
       <c r="G75">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="H75">
-        <v>4.66</v>
+        <v>3.75</v>
       </c>
       <c r="I75">
-        <v>6.75</v>
+        <v>3.6</v>
       </c>
       <c r="J75">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K75">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="L75">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="M75">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="N75">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="O75">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="P75">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q75">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="R75">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="S75">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T75">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="U75">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="V75">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X75">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Z75">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AA75">
-        <v>1.14</v>
+        <v>3.21</v>
       </c>
       <c r="AB75">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AC75">
-        <v>10.7</v>
+        <v>8</v>
       </c>
       <c r="AD75">
-        <v>3.94</v>
+        <v>2.92</v>
       </c>
       <c r="AE75">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AF75">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="AG75">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AH75">
-        <v>1.9</v>
+        <v>2.33</v>
       </c>
       <c r="AI75">
-        <v>2.34</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="76" spans="1:35">
@@ -9368,7 +9368,7 @@
         <v>88</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E76" t="s">
         <v>179</v>
@@ -9377,91 +9377,91 @@
         <v>285</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H76">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="I76">
+        <v>2.9</v>
+      </c>
+      <c r="J76">
+        <v>1.1</v>
+      </c>
+      <c r="K76">
+        <v>6.5</v>
+      </c>
+      <c r="L76">
+        <v>1.42</v>
+      </c>
+      <c r="M76">
+        <v>2.7</v>
+      </c>
+      <c r="N76">
+        <v>2.35</v>
+      </c>
+      <c r="O76">
+        <v>1.53</v>
+      </c>
+      <c r="P76">
+        <v>1.49</v>
+      </c>
+      <c r="Q76">
+        <v>2.45</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1.75</v>
+      </c>
+      <c r="T76">
+        <v>1.25</v>
+      </c>
+      <c r="U76">
+        <v>1.28</v>
+      </c>
+      <c r="V76">
+        <v>1.66</v>
+      </c>
+      <c r="W76">
+        <v>1.77</v>
+      </c>
+      <c r="X76">
+        <v>1.38</v>
+      </c>
+      <c r="Y76">
+        <v>1.57</v>
+      </c>
+      <c r="Z76">
+        <v>1.24</v>
+      </c>
+      <c r="AA76">
+        <v>2.81</v>
+      </c>
+      <c r="AB76">
         <v>1.64</v>
       </c>
-      <c r="J76">
-        <v>1.06</v>
-      </c>
-      <c r="K76">
-        <v>8</v>
-      </c>
-      <c r="L76">
-        <v>1.3</v>
-      </c>
-      <c r="M76">
-        <v>3.3</v>
-      </c>
-      <c r="N76">
-        <v>1.81</v>
-      </c>
-      <c r="O76">
-        <v>1.74</v>
-      </c>
-      <c r="P76">
-        <v>1.4</v>
-      </c>
-      <c r="Q76">
-        <v>2.75</v>
-      </c>
-      <c r="R76">
-        <v>1.83</v>
-      </c>
-      <c r="S76">
-        <v>1.9</v>
-      </c>
-      <c r="T76">
-        <v>1.9</v>
-      </c>
-      <c r="U76">
-        <v>1.22</v>
-      </c>
-      <c r="V76">
-        <v>1.18</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>2.5</v>
-      </c>
       <c r="AC76">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD76">
-        <v>1.68</v>
+        <v>2.78</v>
       </c>
       <c r="AE76">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="AF76">
-        <v>1.32</v>
+        <v>1.91</v>
       </c>
       <c r="AG76">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="AH76">
-        <v>2.06</v>
+        <v>3.42</v>
       </c>
       <c r="AI76">
-        <v>2.64</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="77" spans="1:35">
@@ -9499,10 +9499,10 @@
         <v>7</v>
       </c>
       <c r="L77">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N77">
         <v>2.25</v>
@@ -9532,10 +9532,10 @@
         <v>1.57</v>
       </c>
       <c r="W77">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y77">
         <v>1.57</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -9805,13 +9805,13 @@
         <v>289</v>
       </c>
       <c r="G80">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="H80">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I80">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="J80">
         <v>1.03</v>
@@ -9826,10 +9826,10 @@
         <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="O80">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P80">
         <v>1.38</v>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -9868,33 +9868,33 @@
         <v>1.97</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG80">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI80">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="81" spans="1:35">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B81" s="2">
         <v>45144</v>
@@ -9912,13 +9912,13 @@
         <v>290</v>
       </c>
       <c r="G81">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="H81">
-        <v>4.07</v>
+        <v>4.75</v>
       </c>
       <c r="I81">
-        <v>5.42</v>
+        <v>7.5</v>
       </c>
       <c r="J81">
         <v>1.05</v>
@@ -9933,10 +9933,10 @@
         <v>3.5</v>
       </c>
       <c r="N81">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="O81">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="P81">
         <v>1.36</v>
@@ -9960,10 +9960,10 @@
         <v>2.7</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X81">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="Y81">
         <v>1.98</v>
@@ -10019,13 +10019,13 @@
         <v>291</v>
       </c>
       <c r="G82">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H82">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="I82">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="J82">
         <v>1.02</v>
@@ -10040,10 +10040,10 @@
         <v>3.2</v>
       </c>
       <c r="N82">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O82">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P82">
         <v>1.41</v>
@@ -10067,10 +10067,10 @@
         <v>1.59</v>
       </c>
       <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
         <v>3</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
       </c>
       <c r="Y82">
         <v>1.06</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B83" s="2">
         <v>45144</v>
@@ -10126,13 +10126,13 @@
         <v>292</v>
       </c>
       <c r="G83">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I83">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="J83">
         <v>1.01</v>
@@ -10174,10 +10174,10 @@
         <v>1.44</v>
       </c>
       <c r="W83">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X83">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="Y83">
         <v>2.03</v>
@@ -10233,13 +10233,13 @@
         <v>293</v>
       </c>
       <c r="G84">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H84">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I84">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="J84">
         <v>1.05</v>
@@ -10254,10 +10254,10 @@
         <v>3.7</v>
       </c>
       <c r="N84">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="O84">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P84">
         <v>1.4</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>0</v>
@@ -10340,13 +10340,13 @@
         <v>294</v>
       </c>
       <c r="G85">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="H85">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="I85">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J85">
         <v>1.04</v>
@@ -10361,10 +10361,10 @@
         <v>4</v>
       </c>
       <c r="N85">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="O85">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="P85">
         <v>1.33</v>
@@ -10388,7 +10388,7 @@
         <v>1.45</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X85">
         <v>0</v>
@@ -10447,13 +10447,13 @@
         <v>295</v>
       </c>
       <c r="G86">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="H86">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I86">
-        <v>6.84</v>
+        <v>7</v>
       </c>
       <c r="J86">
         <v>1.03</v>
@@ -10468,10 +10468,10 @@
         <v>4.2</v>
       </c>
       <c r="N86">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="O86">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="P86">
         <v>1.3</v>
@@ -10554,13 +10554,13 @@
         <v>296</v>
       </c>
       <c r="G87">
-        <v>3.69</v>
+        <v>3.5</v>
       </c>
       <c r="H87">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="J87">
         <v>1.07</v>
@@ -10575,10 +10575,10 @@
         <v>2.9</v>
       </c>
       <c r="N87">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="O87">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="P87">
         <v>1.4</v>
@@ -10602,10 +10602,10 @@
         <v>1.22</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X87">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y87">
         <v>1.82</v>
@@ -10661,10 +10661,10 @@
         <v>297</v>
       </c>
       <c r="G88">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I88">
         <v>3.55</v>
@@ -10676,10 +10676,10 @@
         <v>6.5</v>
       </c>
       <c r="L88">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M88">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="N88">
         <v>2.4</v>
@@ -10709,10 +10709,10 @@
         <v>1.67</v>
       </c>
       <c r="W88">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X88">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="Y88">
         <v>1.46</v>
@@ -10768,13 +10768,13 @@
         <v>298</v>
       </c>
       <c r="G89">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="H89">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="I89">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="J89">
         <v>1.08</v>
@@ -10789,10 +10789,10 @@
         <v>2.9</v>
       </c>
       <c r="N89">
-        <v>2.28</v>
+        <v>2.11</v>
       </c>
       <c r="O89">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P89">
         <v>1.46</v>
@@ -10819,7 +10819,7 @@
         <v>3</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y89">
         <v>2.11</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="2">
         <v>45144</v>
@@ -10875,13 +10875,13 @@
         <v>299</v>
       </c>
       <c r="G90">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H90">
-        <v>3.37</v>
+        <v>4.01</v>
       </c>
       <c r="I90">
-        <v>3.04</v>
+        <v>3.58</v>
       </c>
       <c r="J90">
         <v>1.03</v>
@@ -10896,10 +10896,10 @@
         <v>4.33</v>
       </c>
       <c r="N90">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="O90">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="P90">
         <v>1.3</v>
@@ -10923,7 +10923,7 @@
         <v>1.65</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X90">
         <v>0</v>
@@ -10982,13 +10982,13 @@
         <v>300</v>
       </c>
       <c r="G91">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H91">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I91">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -11003,22 +11003,22 @@
         <v>2.32</v>
       </c>
       <c r="N91">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="O91">
         <v>1.41</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -11030,10 +11030,10 @@
         <v>0</v>
       </c>
       <c r="W91">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="X91">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="Y91">
         <v>1.95</v>
@@ -11137,10 +11137,10 @@
         <v>1.44</v>
       </c>
       <c r="W92">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="X92">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="Y92">
         <v>1.83</v>
@@ -11196,13 +11196,13 @@
         <v>302</v>
       </c>
       <c r="G93">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H93">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I93">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J93">
         <v>1.05</v>
@@ -11217,10 +11217,10 @@
         <v>3</v>
       </c>
       <c r="N93">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O93">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="P93">
         <v>1.44</v>
@@ -11244,10 +11244,10 @@
         <v>1.45</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="X93">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="Y93">
         <v>1.79</v>
@@ -11303,13 +11303,13 @@
         <v>303</v>
       </c>
       <c r="G94">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H94">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I94">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J94">
         <v>1.09</v>
@@ -11318,16 +11318,16 @@
         <v>7.5</v>
       </c>
       <c r="L94">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M94">
         <v>2.45</v>
       </c>
       <c r="N94">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O94">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="P94">
         <v>1.53</v>
@@ -11351,10 +11351,10 @@
         <v>1.56</v>
       </c>
       <c r="W94">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="X94">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Y94">
         <v>1.93</v>
@@ -11366,13 +11366,13 @@
         <v>3.32</v>
       </c>
       <c r="AB94">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AC94">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD94">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="AE94">
         <v>1.24</v>
@@ -11410,13 +11410,13 @@
         <v>304</v>
       </c>
       <c r="G95">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H95">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>3.82</v>
+        <v>4.22</v>
       </c>
       <c r="J95">
         <v>1.1</v>
@@ -11425,16 +11425,16 @@
         <v>7.15</v>
       </c>
       <c r="L95">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="M95">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="N95">
-        <v>2.46</v>
+        <v>2.69</v>
       </c>
       <c r="O95">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P95">
         <v>1.55</v>
@@ -11458,7 +11458,7 @@
         <v>1.82</v>
       </c>
       <c r="W95">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="X95">
         <v>1</v>
@@ -11473,19 +11473,19 @@
         <v>3.04</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="AE95">
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG95">
         <v>1.65</v>
@@ -11494,7 +11494,7 @@
         <v>2.02</v>
       </c>
       <c r="AI95">
-        <v>0</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="96" spans="1:35">
@@ -11517,13 +11517,13 @@
         <v>305</v>
       </c>
       <c r="G96">
-        <v>2.49</v>
+        <v>3.02</v>
       </c>
       <c r="H96">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I96">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="J96">
         <v>1.1</v>
@@ -11532,16 +11532,16 @@
         <v>6.85</v>
       </c>
       <c r="L96">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M96">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
-        <v>2.67</v>
+        <v>2.41</v>
       </c>
       <c r="O96">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="P96">
         <v>1.6</v>
@@ -11568,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="X96">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="Y96">
         <v>1.67</v>
@@ -11580,16 +11580,16 @@
         <v>2.58</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AC96">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD96">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AE96">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF96">
         <v>1.52</v>
@@ -11601,7 +11601,7 @@
         <v>2.31</v>
       </c>
       <c r="AI96">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="97" spans="1:35">
@@ -11675,7 +11675,7 @@
         <v>3</v>
       </c>
       <c r="X97">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y97">
         <v>2.17</v>
@@ -11731,13 +11731,13 @@
         <v>307</v>
       </c>
       <c r="G98">
-        <v>2.79</v>
+        <v>2.58</v>
       </c>
       <c r="H98">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="I98">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J98">
         <v>1.03</v>
@@ -11752,10 +11752,10 @@
         <v>3.1</v>
       </c>
       <c r="N98">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="O98">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P98">
         <v>1.39</v>
@@ -11779,10 +11779,10 @@
         <v>1.39</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -11794,28 +11794,28 @@
         <v>0</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC98">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AD98">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE98">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF98">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG98">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH98">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI98">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="99" spans="1:35">
@@ -11838,13 +11838,13 @@
         <v>308</v>
       </c>
       <c r="G99">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H99">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I99">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -11859,10 +11859,10 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O99">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -11886,10 +11886,10 @@
         <v>0</v>
       </c>
       <c r="W99">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="X99">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="Y99">
         <v>1.61</v>
@@ -11945,13 +11945,13 @@
         <v>309</v>
       </c>
       <c r="G100">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="H100">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I100">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J100">
         <v>1.08</v>
@@ -11966,10 +11966,10 @@
         <v>2.55</v>
       </c>
       <c r="N100">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O100">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="P100">
         <v>1.5</v>
@@ -11993,10 +11993,10 @@
         <v>2.1</v>
       </c>
       <c r="W100">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X100">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="Y100">
         <v>1.56</v>
@@ -12052,91 +12052,91 @@
         <v>310</v>
       </c>
       <c r="G101">
-        <v>2.05</v>
+        <v>2.87</v>
       </c>
       <c r="H101">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="I101">
-        <v>3.55</v>
+        <v>2.47</v>
       </c>
       <c r="J101">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K101">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="L101">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M101">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="N101">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="O101">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="P101">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q101">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>1.47</v>
+      </c>
+      <c r="U101">
+        <v>1.28</v>
+      </c>
+      <c r="V101">
+        <v>1.39</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <v>1.44</v>
+      </c>
+      <c r="Y101">
+        <v>1.63</v>
+      </c>
+      <c r="Z101">
+        <v>1.6</v>
+      </c>
+      <c r="AA101">
+        <v>3.23</v>
+      </c>
+      <c r="AB101">
         <v>2</v>
-      </c>
-      <c r="T101">
-        <v>1.3</v>
-      </c>
-      <c r="U101">
-        <v>1.3</v>
-      </c>
-      <c r="V101">
-        <v>1.78</v>
-      </c>
-      <c r="W101">
-        <v>1.13</v>
-      </c>
-      <c r="X101">
-        <v>0.38</v>
-      </c>
-      <c r="Y101">
-        <v>1.67</v>
-      </c>
-      <c r="Z101">
-        <v>1.5</v>
-      </c>
-      <c r="AA101">
-        <v>3.17</v>
-      </c>
-      <c r="AB101">
-        <v>1.66</v>
       </c>
       <c r="AC101">
         <v>8</v>
       </c>
       <c r="AD101">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="AE101">
         <v>1.19</v>
       </c>
       <c r="AF101">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AG101">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AH101">
+        <v>1.66</v>
+      </c>
+      <c r="AI101">
         <v>2.02</v>
-      </c>
-      <c r="AI101">
-        <v>2.55</v>
       </c>
     </row>
     <row r="102" spans="1:35">
@@ -12159,37 +12159,37 @@
         <v>311</v>
       </c>
       <c r="G102">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="H102">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="I102">
-        <v>2.65</v>
+        <v>3.88</v>
       </c>
       <c r="J102">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K102">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="L102">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M102">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="N102">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="O102">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="P102">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q102">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R102">
         <v>1.8</v>
@@ -12198,52 +12198,52 @@
         <v>1.95</v>
       </c>
       <c r="T102">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="U102">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V102">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="W102">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="X102">
-        <v>1.25</v>
+        <v>0.33</v>
       </c>
       <c r="Y102">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z102">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AA102">
-        <v>3.23</v>
+        <v>3.17</v>
       </c>
       <c r="AB102">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="AC102">
         <v>8</v>
       </c>
       <c r="AD102">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="AE102">
         <v>1.19</v>
       </c>
       <c r="AF102">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AG102">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AH102">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="AI102">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="103" spans="1:35">
@@ -12266,13 +12266,13 @@
         <v>312</v>
       </c>
       <c r="G103">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="H103">
         <v>3.4</v>
       </c>
       <c r="I103">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J103">
         <v>1.02</v>
@@ -12287,10 +12287,10 @@
         <v>3.48</v>
       </c>
       <c r="N103">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="O103">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="P103">
         <v>1.39</v>
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="X103">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y103">
         <v>1.6</v>
@@ -12373,13 +12373,13 @@
         <v>313</v>
       </c>
       <c r="G104">
-        <v>2.17</v>
+        <v>2.46</v>
       </c>
       <c r="H104">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I104">
-        <v>3.45</v>
+        <v>3.02</v>
       </c>
       <c r="J104">
         <v>1.04</v>
@@ -12394,10 +12394,10 @@
         <v>2.75</v>
       </c>
       <c r="N104">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="O104">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="P104">
         <v>1.5</v>
@@ -12421,10 +12421,10 @@
         <v>1.55</v>
       </c>
       <c r="W104">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="Y104">
         <v>1.68</v>
@@ -12436,13 +12436,13 @@
         <v>2.97</v>
       </c>
       <c r="AB104">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AC104">
         <v>8.5</v>
       </c>
       <c r="AD104">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AE104">
         <v>1.21</v>
@@ -12480,31 +12480,31 @@
         <v>314</v>
       </c>
       <c r="G105">
+        <v>1.63</v>
+      </c>
+      <c r="H105">
+        <v>3.65</v>
+      </c>
+      <c r="I105">
+        <v>4.82</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>2.12</v>
+      </c>
+      <c r="O105">
         <v>1.64</v>
-      </c>
-      <c r="H105">
-        <v>3.55</v>
-      </c>
-      <c r="I105">
-        <v>4.4</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>2.1</v>
-      </c>
-      <c r="O105">
-        <v>1.65</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -12587,13 +12587,13 @@
         <v>315</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="J106">
         <v>1.04</v>
@@ -12608,10 +12608,10 @@
         <v>2.75</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="P106">
         <v>1.5</v>
@@ -12620,10 +12620,10 @@
         <v>2.5</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T106">
         <v>1.62</v>
@@ -12650,13 +12650,13 @@
         <v>2.93</v>
       </c>
       <c r="AB106">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="AC106">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD106">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AE106">
         <v>1.21</v>
@@ -12694,13 +12694,13 @@
         <v>316</v>
       </c>
       <c r="G107">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="H107">
         <v>3.3</v>
       </c>
       <c r="I107">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="J107">
         <v>1.01</v>
@@ -12715,10 +12715,10 @@
         <v>3.55</v>
       </c>
       <c r="N107">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="O107">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="P107">
         <v>1.36</v>
